--- a/Manuskripter/FCR artikel/Tables_article_FCR_not pruned.xlsx
+++ b/Manuskripter/FCR artikel/Tables_article_FCR_not pruned.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Manuskripter/FCR artikel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFCB38A-EBA5-E347-9CE8-9133DBE8F393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37215B-363E-8D46-A6EC-1E62A3EDCCF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="10" xr2:uid="{E8349BFB-5D7A-5E42-AEB7-1DAD9BEFC203}"/>
+    <workbookView xWindow="6080" yWindow="0" windowWidth="25540" windowHeight="16440" firstSheet="4" activeTab="5" xr2:uid="{54146E89-B228-B948-8F86-78AB4428F156}"/>
   </bookViews>
   <sheets>
     <sheet name="Consequence" sheetId="17" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="19" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId3"/>
-    <sheet name="CMML" sheetId="11" r:id="rId4"/>
-    <sheet name="HS" sheetId="13" r:id="rId5"/>
-    <sheet name="Hedan" sheetId="20" r:id="rId6"/>
-    <sheet name="Top20germline" sheetId="12" r:id="rId7"/>
-    <sheet name="Top20cancer" sheetId="14" r:id="rId8"/>
-    <sheet name="RD" sheetId="16" r:id="rId9"/>
-    <sheet name="PL" sheetId="15" r:id="rId10"/>
-    <sheet name="Gene lists" sheetId="8" r:id="rId11"/>
+    <sheet name="Panther" sheetId="19" r:id="rId2"/>
+    <sheet name="CMML" sheetId="11" r:id="rId3"/>
+    <sheet name="HS" sheetId="13" r:id="rId4"/>
+    <sheet name="Hedan" sheetId="20" r:id="rId5"/>
+    <sheet name="Top20germline" sheetId="12" r:id="rId6"/>
+    <sheet name="Top20cancer" sheetId="14" r:id="rId7"/>
+    <sheet name="RD" sheetId="16" r:id="rId8"/>
+    <sheet name="PL" sheetId="15" r:id="rId9"/>
+    <sheet name="Gene lists" sheetId="8" r:id="rId10"/>
+    <sheet name="SNPs for array" sheetId="21" r:id="rId11"/>
     <sheet name="cnv" sheetId="9" r:id="rId12"/>
     <sheet name="Liftover PL_genes" sheetId="10" r:id="rId13"/>
   </sheets>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="1106">
   <si>
     <t>Consequence</t>
   </si>
@@ -3346,6 +3346,24 @@
   </si>
   <si>
     <t>Control</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>CDK5RAP2</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>T20g</t>
+  </si>
+  <si>
+    <t>T20c</t>
+  </si>
+  <si>
+    <t>CMML+JMML</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3373,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr.&quot;_-;\-* #,##0.00\ &quot;kr.&quot;_-;_-* &quot;-&quot;??\ &quot;kr.&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3429,6 +3447,19 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3480,7 +3511,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -3546,13 +3577,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3604,6 +3659,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3614,19 +3676,9 @@
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3707,6 +3759,9 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3938,7 +3993,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4003,7 +4118,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B6A56884-C042-884A-9795-3BF6ACB44B26}" name="Consequences" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{E823AD5A-F261-C24D-8B5C-DB657370B650}" name="#" totalsRowFunction="sum"/>
-    <tableColumn id="3" xr3:uid="{2E2B94A4-E810-584C-87BC-3C8F43A7BB2F}" name="%" totalsRowFunction="count" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="3" xr3:uid="{2E2B94A4-E810-584C-87BC-3C8F43A7BB2F}" name="%" totalsRowFunction="count" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>Table8[[#This Row],['#]]/Table8[[#Totals],['#]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4229,6 +4344,9 @@
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB3FDE70-9641-AA4B-8162-5375EEBF8134}" name="Top20cancergenes" displayName="Top20cancergenes" ref="F2:J22" totalsRowShown="0">
   <autoFilter ref="F2:J22" xr:uid="{287949DE-0F87-204D-A9CF-4C5EB1C0A495}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F3:J22">
+    <sortCondition ref="F2:F22"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B864C800-8EFB-5045-9CF8-417575073D6E}" name="HUMAN Gene"/>
     <tableColumn id="2" xr3:uid="{E0BAC0CF-E716-234B-A393-684E9E574E2A}" name="Alt name"/>
@@ -4284,33 +4402,40 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6078B195-A8AE-6A42-A072-693610EBEDB9}" name="HSgenes" displayName="HSgenes" ref="R2:U45" totalsRowShown="0">
-  <autoFilter ref="R2:U45" xr:uid="{F602A5EE-B399-0846-8C7A-862CBFE3134C}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6078B195-A8AE-6A42-A072-693610EBEDB9}" name="HSgenes" displayName="HSgenes" ref="R2:V45" totalsRowShown="0">
+  <autoFilter ref="R2:V45" xr:uid="{F602A5EE-B399-0846-8C7A-862CBFE3134C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:V45">
+    <sortCondition ref="R2:R45"/>
+  </sortState>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{541C3BA2-06F3-214A-BF52-C8D0CF8836B2}" name="GENE"/>
     <tableColumn id="2" xr3:uid="{E5F96A41-58E3-2449-AB16-56559E69F3BD}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{CD1B56AC-CCA5-E44D-976C-8A3C01E89DE6}" name="POS"/>
     <tableColumn id="4" xr3:uid="{B6B9AB0C-309F-AB49-AABB-972D05E05F11}" name="TO"/>
+    <tableColumn id="5" xr3:uid="{FAB6BC00-F633-2444-A7B1-4D60686117AA}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EDE52A3F-1598-FD41-B57A-D2021062BE2F}" name="Table5" displayName="Table5" ref="W2:Z74" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="W2:Z74" xr:uid="{584FDEE4-FD94-1A44-8140-A3B2EED18C28}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EDE52A3F-1598-FD41-B57A-D2021062BE2F}" name="Table5" displayName="Table5" ref="W2:AA74" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="W2:AA74" xr:uid="{584FDEE4-FD94-1A44-8140-A3B2EED18C28}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{103451D2-A87B-054F-87D4-DED406183E64}" name="GENE"/>
     <tableColumn id="2" xr3:uid="{C2A06AB2-EB97-004C-B601-EEC7E15AB00F}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{CF293ACC-D041-894A-842E-A74FB4C0C907}" name="POS"/>
     <tableColumn id="4" xr3:uid="{1CE38B32-8C60-DC4C-91BE-9337F8179433}" name="TO"/>
+    <tableColumn id="5" xr3:uid="{375EF108-D488-794E-B4C4-2BDCAAD09F74}" name="Column2" dataDxfId="7">
+      <calculatedColumnFormula>COUNTA(AB2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84D050B0-4C1B-3442-94CE-21213F341670}" name="Table6" displayName="Table6" ref="AB2:AF50" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{84D050B0-4C1B-3442-94CE-21213F341670}" name="Table6" displayName="Table6" ref="AB2:AF50" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="AB2:AF50" xr:uid="{B7012DC4-20F9-7B4C-A0AD-2E6A51295FAD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1619F544-C52B-8C4B-B319-9704E3C649DA}" name="HUMAN Gene"/>
@@ -4528,7 +4653,7 @@
     <tableColumn id="17" xr3:uid="{11F11A20-F0B2-4C44-9D88-B22EC505804A}" name="MAF_A"/>
     <tableColumn id="18" xr3:uid="{C60D7879-7256-3741-B4F8-4F277604379F}" name="MAF_U"/>
     <tableColumn id="19" xr3:uid="{CB59CC1D-D101-034C-B4D0-CCC1A51CE1F6}" name="r_MAF_A"/>
-    <tableColumn id="20" xr3:uid="{37A1D51D-FE28-1D44-9D6F-B8C920A77034}" name="Column1" dataDxfId="39">
+    <tableColumn id="20" xr3:uid="{37A1D51D-FE28-1D44-9D6F-B8C920A77034}" name="Column1" dataDxfId="41">
       <calculatedColumnFormula>1-Table24[[#This Row],[MAF_U]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4835,7 +4960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4B3489-6CE2-4245-BF1C-D35EC000A82E}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5325,1032 +5450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA1EB64-53E8-7B4E-9184-BC669369BCC9}">
-  <dimension ref="A1:V21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1EC42A-5EAE-9245-80B7-D1BFDACE3A81}">
+  <dimension ref="A1:AF127"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="15" max="15" width="20.83203125" customWidth="1"/>
-    <col min="19" max="19" width="11.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>416</v>
-      </c>
-      <c r="J2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>422</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>414</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>416</v>
-      </c>
-      <c r="J6" t="s">
-        <v>417</v>
-      </c>
-      <c r="K6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>422</v>
-      </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" t="s">
-        <v>7</v>
-      </c>
-      <c r="S6" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C7" t="s">
-        <v>770</v>
-      </c>
-      <c r="D7" t="s">
-        <v>771</v>
-      </c>
-      <c r="E7">
-        <v>16340641</v>
-      </c>
-      <c r="F7">
-        <v>179</v>
-      </c>
-      <c r="G7">
-        <v>0.55923800000000001</v>
-      </c>
-      <c r="H7">
-        <v>2.7455351000000001</v>
-      </c>
-      <c r="I7" t="s">
-        <v>772</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>730</v>
-      </c>
-      <c r="M7" t="s">
-        <v>731</v>
-      </c>
-      <c r="N7" t="s">
-        <v>773</v>
-      </c>
-      <c r="O7" t="s">
-        <v>774</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7">
-        <v>0.34210000000000002</v>
-      </c>
-      <c r="R7">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="S7">
-        <v>0.65790000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>775</v>
-      </c>
-      <c r="C8" t="s">
-        <v>776</v>
-      </c>
-      <c r="D8" t="s">
-        <v>777</v>
-      </c>
-      <c r="E8">
-        <v>16905077</v>
-      </c>
-      <c r="F8">
-        <v>174</v>
-      </c>
-      <c r="G8">
-        <v>5.9039500000000002E-2</v>
-      </c>
-      <c r="H8">
-        <v>-0.36394929999999998</v>
-      </c>
-      <c r="I8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" t="s">
-        <v>575</v>
-      </c>
-      <c r="M8" t="s">
-        <v>721</v>
-      </c>
-      <c r="N8" t="s">
-        <v>779</v>
-      </c>
-      <c r="O8" t="s">
-        <v>780</v>
-      </c>
-      <c r="P8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="R8">
-        <v>0.2</v>
-      </c>
-      <c r="S8">
-        <v>0.36840000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>781</v>
-      </c>
-      <c r="C9" t="s">
-        <v>782</v>
-      </c>
-      <c r="D9" t="s">
-        <v>783</v>
-      </c>
-      <c r="E9">
-        <v>19071668</v>
-      </c>
-      <c r="F9">
-        <v>178</v>
-      </c>
-      <c r="G9">
-        <v>3.6314100000000002E-2</v>
-      </c>
-      <c r="H9">
-        <v>-0.5052217</v>
-      </c>
-      <c r="I9" t="s">
-        <v>784</v>
-      </c>
-      <c r="J9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>504</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>785</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>0.57889999999999997</v>
-      </c>
-      <c r="R9">
-        <v>0.4088</v>
-      </c>
-      <c r="S9">
-        <v>0.42109999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>786</v>
-      </c>
-      <c r="C10" t="s">
-        <v>782</v>
-      </c>
-      <c r="D10" t="s">
-        <v>787</v>
-      </c>
-      <c r="E10">
-        <v>19209694</v>
-      </c>
-      <c r="F10">
-        <v>175</v>
-      </c>
-      <c r="G10">
-        <v>-1.6185999999999999E-2</v>
-      </c>
-      <c r="H10">
-        <v>-0.83158860000000001</v>
-      </c>
-      <c r="I10" t="s">
-        <v>788</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>447</v>
-      </c>
-      <c r="M10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>785</v>
-      </c>
-      <c r="P10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10">
-        <v>0.26319999999999999</v>
-      </c>
-      <c r="R10">
-        <v>0.21790000000000001</v>
-      </c>
-      <c r="S10">
-        <v>0.73680000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>789</v>
-      </c>
-      <c r="C11" t="s">
-        <v>790</v>
-      </c>
-      <c r="D11" t="s">
-        <v>791</v>
-      </c>
-      <c r="E11">
-        <v>27638766</v>
-      </c>
-      <c r="F11">
-        <v>172</v>
-      </c>
-      <c r="G11">
-        <v>8.3832900000000002E-2</v>
-      </c>
-      <c r="H11">
-        <v>-0.20982110000000001</v>
-      </c>
-      <c r="I11" t="s">
-        <v>792</v>
-      </c>
-      <c r="J11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>793</v>
-      </c>
-      <c r="M11" t="s">
-        <v>794</v>
-      </c>
-      <c r="N11" t="s">
-        <v>636</v>
-      </c>
-      <c r="O11" t="s">
-        <v>234</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11">
-        <v>0.47370000000000001</v>
-      </c>
-      <c r="R11">
-        <v>0.26469999999999999</v>
-      </c>
-      <c r="S11">
-        <v>0.47370000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>795</v>
-      </c>
-      <c r="C12" t="s">
-        <v>796</v>
-      </c>
-      <c r="D12" t="s">
-        <v>797</v>
-      </c>
-      <c r="E12">
-        <v>28889008</v>
-      </c>
-      <c r="F12">
-        <v>178</v>
-      </c>
-      <c r="G12">
-        <v>-5.32585E-3</v>
-      </c>
-      <c r="H12">
-        <v>-0.76407650000000005</v>
-      </c>
-      <c r="I12" t="s">
-        <v>798</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>745</v>
-      </c>
-      <c r="M12" t="s">
-        <v>746</v>
-      </c>
-      <c r="N12" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="R12">
-        <v>0.22009999999999999</v>
-      </c>
-      <c r="S12">
-        <v>0.71050000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>799</v>
-      </c>
-      <c r="C13" t="s">
-        <v>796</v>
-      </c>
-      <c r="D13" t="s">
-        <v>800</v>
-      </c>
-      <c r="E13">
-        <v>28892386</v>
-      </c>
-      <c r="F13">
-        <v>177</v>
-      </c>
-      <c r="G13">
-        <v>-1.5277300000000001E-2</v>
-      </c>
-      <c r="H13">
-        <v>-0.82593970000000005</v>
-      </c>
-      <c r="I13" t="s">
-        <v>801</v>
-      </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>802</v>
-      </c>
-      <c r="M13" t="s">
-        <v>803</v>
-      </c>
-      <c r="N13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" t="s">
-        <v>230</v>
-      </c>
-      <c r="P13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="R13">
-        <v>0.2437</v>
-      </c>
-      <c r="S13">
-        <v>0.28949999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>804</v>
-      </c>
-      <c r="C14" t="s">
-        <v>805</v>
-      </c>
-      <c r="D14" t="s">
-        <v>806</v>
-      </c>
-      <c r="E14">
-        <v>29046463</v>
-      </c>
-      <c r="F14">
-        <v>178</v>
-      </c>
-      <c r="G14">
-        <v>9.8353300000000005E-2</v>
-      </c>
-      <c r="H14">
-        <v>-0.11955499999999999</v>
-      </c>
-      <c r="I14" t="s">
-        <v>807</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>450</v>
-      </c>
-      <c r="M14" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>808</v>
-      </c>
-      <c r="O14" t="s">
-        <v>809</v>
-      </c>
-      <c r="P14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="R14">
-        <v>0.1164</v>
-      </c>
-      <c r="S14">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="V14">
-        <f>COUNTA(Table28[r_MAF_A])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>810</v>
-      </c>
-      <c r="C15" t="s">
-        <v>811</v>
-      </c>
-      <c r="D15" t="s">
-        <v>812</v>
-      </c>
-      <c r="E15">
-        <v>29195180</v>
-      </c>
-      <c r="F15">
-        <v>174</v>
-      </c>
-      <c r="G15">
-        <v>3.9446500000000002E-2</v>
-      </c>
-      <c r="H15">
-        <v>-0.48574919999999999</v>
-      </c>
-      <c r="I15" t="s">
-        <v>813</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>814</v>
-      </c>
-      <c r="M15" t="s">
-        <v>815</v>
-      </c>
-      <c r="N15" t="s">
-        <v>816</v>
-      </c>
-      <c r="O15" t="s">
-        <v>227</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="R15">
-        <v>0.49030000000000001</v>
-      </c>
-      <c r="S15">
-        <v>0.68420000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>817</v>
-      </c>
-      <c r="C16" t="s">
-        <v>818</v>
-      </c>
-      <c r="D16" t="s">
-        <v>819</v>
-      </c>
-      <c r="E16">
-        <v>19643711</v>
-      </c>
-      <c r="F16">
-        <v>174</v>
-      </c>
-      <c r="G16">
-        <v>1.88217E-2</v>
-      </c>
-      <c r="H16">
-        <v>-0.61396329999999999</v>
-      </c>
-      <c r="I16" t="s">
-        <v>820</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" t="s">
-        <v>447</v>
-      </c>
-      <c r="M16" t="s">
-        <v>707</v>
-      </c>
-      <c r="N16" t="s">
-        <v>821</v>
-      </c>
-      <c r="O16" t="s">
-        <v>822</v>
-      </c>
-      <c r="P16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16">
-        <v>0.44740000000000002</v>
-      </c>
-      <c r="R16">
-        <v>0.31290000000000001</v>
-      </c>
-      <c r="S16">
-        <v>0.44740000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>823</v>
-      </c>
-      <c r="C17" t="s">
-        <v>824</v>
-      </c>
-      <c r="D17" t="s">
-        <v>825</v>
-      </c>
-      <c r="E17">
-        <v>11333912</v>
-      </c>
-      <c r="F17">
-        <v>175</v>
-      </c>
-      <c r="G17">
-        <v>0.36162300000000003</v>
-      </c>
-      <c r="H17">
-        <v>1.5170612999999999</v>
-      </c>
-      <c r="I17" t="s">
-        <v>826</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" t="s">
-        <v>640</v>
-      </c>
-      <c r="M17" t="s">
-        <v>641</v>
-      </c>
-      <c r="N17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="R17">
-        <v>0.17630000000000001</v>
-      </c>
-      <c r="S17">
-        <v>0.60529999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>827</v>
-      </c>
-      <c r="C18" t="s">
-        <v>828</v>
-      </c>
-      <c r="D18" t="s">
-        <v>829</v>
-      </c>
-      <c r="E18">
-        <v>25066361</v>
-      </c>
-      <c r="F18">
-        <v>178</v>
-      </c>
-      <c r="G18">
-        <v>4.9534300000000003E-2</v>
-      </c>
-      <c r="H18">
-        <v>-0.42303839999999998</v>
-      </c>
-      <c r="I18" t="s">
-        <v>830</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" t="s">
-        <v>831</v>
-      </c>
-      <c r="M18" t="s">
-        <v>832</v>
-      </c>
-      <c r="N18" t="s">
-        <v>833</v>
-      </c>
-      <c r="O18" t="s">
-        <v>834</v>
-      </c>
-      <c r="P18" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18">
-        <v>0.34210000000000002</v>
-      </c>
-      <c r="R18">
-        <v>0.18870000000000001</v>
-      </c>
-      <c r="S18">
-        <v>0.34210000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f>COUNTA(Table28[CHR])</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
-        <v>460</v>
-      </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>414</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" t="s">
-        <v>416</v>
-      </c>
-      <c r="J21" t="s">
-        <v>417</v>
-      </c>
-      <c r="K21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>422</v>
-      </c>
-      <c r="M21" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" t="s">
-        <v>9</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" t="s">
-        <v>7</v>
-      </c>
-      <c r="S21" t="s">
-        <v>427</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A20:S20"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A1:S1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="S7:S18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1EC42A-5EAE-9245-80B7-D1BFDACE3A81}">
-  <dimension ref="A1:AF75"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6364,45 +5468,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="F1" s="49" t="s">
+      <c r="A1" s="56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="L1" s="56" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="R1" s="49" t="s">
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="R1" s="56" t="s">
         <v>196</v>
       </c>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="W1" s="49" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="W1" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AB1" s="50" t="s">
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AB1" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -6459,6 +5563,9 @@
       <c r="U2" t="s">
         <v>90</v>
       </c>
+      <c r="V2" t="s">
+        <v>1100</v>
+      </c>
       <c r="W2" s="28" t="s">
         <v>87</v>
       </c>
@@ -6470,6 +5577,9 @@
       </c>
       <c r="Z2" s="30" t="s">
         <v>90</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>1100</v>
       </c>
       <c r="AB2" s="28" t="s">
         <v>113</v>
@@ -6551,6 +5661,10 @@
       <c r="Z3">
         <v>64346369</v>
       </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA34" si="0">COUNTA(AB2)</f>
+        <v>1</v>
+      </c>
       <c r="AB3" t="s">
         <v>327</v>
       </c>
@@ -6581,19 +5695,19 @@
         <v>14676956</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I4" s="5">
-        <v>8222907</v>
+        <v>253081</v>
       </c>
       <c r="J4" s="5">
-        <v>8317906</v>
+        <v>322993</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>130</v>
@@ -6611,16 +5725,7 @@
         <v>322993</v>
       </c>
       <c r="R4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4">
-        <v>16</v>
-      </c>
-      <c r="T4">
-        <v>8222907</v>
-      </c>
-      <c r="U4">
-        <v>8317906</v>
+        <v>1086</v>
       </c>
       <c r="X4">
         <v>7</v>
@@ -6630,6 +5735,10 @@
       </c>
       <c r="Z4">
         <v>12595707</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB4" t="s">
         <v>330</v>
@@ -6661,19 +5770,19 @@
         <v>5831882</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I5" s="5">
-        <v>44128386</v>
+        <v>73324852</v>
       </c>
       <c r="J5" s="5">
-        <v>44241192</v>
+        <v>73401102</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>153</v>
@@ -6691,16 +5800,7 @@
         <v>38224016</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>68253255</v>
-      </c>
-      <c r="U5">
-        <v>68318252</v>
+        <v>1098</v>
       </c>
       <c r="X5">
         <v>7</v>
@@ -6710,6 +5810,10 @@
       </c>
       <c r="Z5">
         <v>13034042</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB5" t="s">
         <v>331</v>
@@ -6741,19 +5845,19 @@
         <v>19563902</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I6" s="5">
-        <v>15963901</v>
+        <v>24182135</v>
       </c>
       <c r="J6" s="5">
-        <v>16158408</v>
+        <v>24297207</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>155</v>
@@ -6771,16 +5875,16 @@
         <v>7797815</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="T6">
-        <v>37817305</v>
+        <v>8222907</v>
       </c>
       <c r="U6">
-        <v>37823852</v>
+        <v>8317906</v>
       </c>
       <c r="X6">
         <v>7</v>
@@ -6790,6 +5894,10 @@
       </c>
       <c r="Z6">
         <v>14427023</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB6" t="s">
         <v>333</v>
@@ -6821,19 +5929,19 @@
         <v>1991838</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="H7" t="s">
+        <v>329</v>
       </c>
       <c r="I7" s="5">
-        <v>15158922</v>
+        <v>59774585</v>
       </c>
       <c r="J7" s="5">
-        <v>15332045</v>
+        <v>60106980</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>157</v>
@@ -6851,16 +5959,16 @@
         <v>80834878</v>
       </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="S7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>38742963</v>
+        <v>68253255</v>
       </c>
       <c r="U7">
-        <v>38774576</v>
+        <v>68318252</v>
       </c>
       <c r="X7">
         <v>7</v>
@@ -6870,6 +5978,10 @@
       </c>
       <c r="Z7">
         <v>16243676</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB7" t="s">
         <v>335</v>
@@ -6901,19 +6013,19 @@
         <v>11692284</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I8" s="5">
-        <v>73324852</v>
+        <v>8222907</v>
       </c>
       <c r="J8" s="5">
-        <v>73401102</v>
+        <v>8317906</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>159</v>
@@ -6931,16 +6043,16 @@
         <v>41264379</v>
       </c>
       <c r="R8" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="S8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T8">
-        <v>40835885</v>
+        <v>37817305</v>
       </c>
       <c r="U8">
-        <v>40863014</v>
+        <v>37823852</v>
       </c>
       <c r="X8">
         <v>7</v>
@@ -6950,6 +6062,10 @@
       </c>
       <c r="Z8">
         <v>16340641</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB8" t="s">
         <v>337</v>
@@ -6981,19 +6097,19 @@
         <v>53087496</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I9" s="5">
-        <v>37835661</v>
+        <v>44128386</v>
       </c>
       <c r="J9" s="5">
-        <v>37913176</v>
+        <v>44241192</v>
       </c>
       <c r="L9" s="8" t="s">
         <v>161</v>
@@ -7011,16 +6127,16 @@
         <v>6042631</v>
       </c>
       <c r="R9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S9">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="T9">
-        <v>41223315</v>
+        <v>38742963</v>
       </c>
       <c r="U9">
-        <v>41264379</v>
+        <v>38774576</v>
       </c>
       <c r="X9">
         <v>7</v>
@@ -7030,6 +6146,10 @@
       </c>
       <c r="Z9">
         <v>16905077</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB9" t="s">
         <v>339</v>
@@ -7049,19 +6169,19 @@
         <v>93435997</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I10" s="5">
-        <v>5521804</v>
+        <v>15158922</v>
       </c>
       <c r="J10" s="5">
-        <v>5553490</v>
+        <v>15332045</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>163</v>
@@ -7079,16 +6199,7 @@
         <v>20134426</v>
       </c>
       <c r="R10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10">
-        <v>27</v>
-      </c>
-      <c r="T10">
-        <v>36040577</v>
-      </c>
-      <c r="U10">
-        <v>36051184</v>
+        <v>1101</v>
       </c>
       <c r="X10">
         <v>7</v>
@@ -7098,6 +6209,10 @@
       </c>
       <c r="Z10">
         <v>17828208</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB10" t="s">
         <v>340</v>
@@ -7129,19 +6244,19 @@
         <v>22293369</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I11" s="5">
-        <v>22257941</v>
+        <v>32303121</v>
       </c>
       <c r="J11" s="5">
-        <v>22293369</v>
+        <v>32668960</v>
       </c>
       <c r="L11" s="8" t="s">
         <v>117</v>
@@ -7159,16 +6274,16 @@
         <v>44241192</v>
       </c>
       <c r="R11" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="S11">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="T11">
-        <v>30488488</v>
+        <v>40835885</v>
       </c>
       <c r="U11">
-        <v>30536765</v>
+        <v>40863014</v>
       </c>
       <c r="X11">
         <v>7</v>
@@ -7178,6 +6293,10 @@
       </c>
       <c r="Z11">
         <v>18443544</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB11" t="s">
         <v>342</v>
@@ -7197,19 +6316,19 @@
         <v>41679382</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="5">
-        <v>253081</v>
+        <v>15217348</v>
       </c>
       <c r="J12" s="5">
-        <v>322993</v>
+        <v>15270971</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>165</v>
@@ -7227,16 +6346,16 @@
         <v>47485042</v>
       </c>
       <c r="R12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S12">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="T12">
-        <v>30553182</v>
+        <v>41223315</v>
       </c>
       <c r="U12">
-        <v>30638522</v>
+        <v>41264379</v>
       </c>
       <c r="X12">
         <v>7</v>
@@ -7246,6 +6365,10 @@
       </c>
       <c r="Z12">
         <v>19071668</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB12" t="s">
         <v>343</v>
@@ -7277,19 +6400,19 @@
         <v>40770175</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H13">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I13" s="5">
-        <v>12600233</v>
+        <v>15963901</v>
       </c>
       <c r="J13" s="5">
-        <v>12675910</v>
+        <v>16158408</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>34</v>
@@ -7307,16 +6430,16 @@
         <v>41679382</v>
       </c>
       <c r="R13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S13">
         <v>27</v>
       </c>
       <c r="T13">
-        <v>858692</v>
+        <v>36040577</v>
       </c>
       <c r="U13">
-        <v>875876</v>
+        <v>36051184</v>
       </c>
       <c r="X13">
         <v>7</v>
@@ -7326,6 +6449,10 @@
       </c>
       <c r="Z13">
         <v>19208308</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
         <v>345</v>
@@ -7357,19 +6484,19 @@
         <v>52418788</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I14" s="5">
-        <v>24182135</v>
+        <v>5521804</v>
       </c>
       <c r="J14" s="5">
-        <v>24297207</v>
+        <v>5553490</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>167</v>
@@ -7387,16 +6514,16 @@
         <v>46773278</v>
       </c>
       <c r="R14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S14">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="T14">
-        <v>59962994</v>
+        <v>30488488</v>
       </c>
       <c r="U14">
-        <v>59970751</v>
+        <v>30536765</v>
       </c>
       <c r="X14">
         <v>7</v>
@@ -7406,6 +6533,10 @@
       </c>
       <c r="Z14">
         <v>19209694</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB14" t="s">
         <v>347</v>
@@ -7437,19 +6568,19 @@
         <v>41679382</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I15" s="5">
-        <v>15217348</v>
+        <v>22257941</v>
       </c>
       <c r="J15" s="5">
-        <v>15270971</v>
+        <v>22293369</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>169</v>
@@ -7467,16 +6598,7 @@
         <v>479917</v>
       </c>
       <c r="R15" t="s">
-        <v>190</v>
-      </c>
-      <c r="S15">
-        <v>15</v>
-      </c>
-      <c r="T15">
-        <v>31793233</v>
-      </c>
-      <c r="U15">
-        <v>31800912</v>
+        <v>1090</v>
       </c>
       <c r="X15">
         <v>7</v>
@@ -7486,6 +6608,10 @@
       </c>
       <c r="Z15">
         <v>19456794</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB15" t="s">
         <v>349</v>
@@ -7517,19 +6643,19 @@
         <v>30420839</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I16" s="5">
-        <v>32560598</v>
+        <v>41469416</v>
       </c>
       <c r="J16" s="5">
-        <v>32574109</v>
+        <v>41679382</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>171</v>
@@ -7547,16 +6673,7 @@
         <v>71305662</v>
       </c>
       <c r="R16" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16">
-        <v>23185782</v>
-      </c>
-      <c r="U16">
-        <v>23253497</v>
+        <v>1096</v>
       </c>
       <c r="X16">
         <v>7</v>
@@ -7566,6 +6683,10 @@
       </c>
       <c r="Z16">
         <v>20581823</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB16" t="s">
         <v>351</v>
@@ -7597,19 +6718,19 @@
         <v>46378005</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I17" s="5">
-        <v>78455005</v>
+        <v>12600233</v>
       </c>
       <c r="J17" s="5">
-        <v>78610033</v>
+        <v>12675910</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>125</v>
@@ -7627,16 +6748,7 @@
         <v>37913176</v>
       </c>
       <c r="R17" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17">
-        <v>34</v>
-      </c>
-      <c r="T17">
-        <v>12600233</v>
-      </c>
-      <c r="U17">
-        <v>12675910</v>
+        <v>1093</v>
       </c>
       <c r="X17">
         <v>7</v>
@@ -7646,6 +6758,10 @@
       </c>
       <c r="Z17">
         <v>21705081</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB17" t="s">
         <v>353</v>
@@ -7677,19 +6793,19 @@
         <v>6962896</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I18" s="5">
-        <v>32303121</v>
+        <v>37835661</v>
       </c>
       <c r="J18" s="5">
-        <v>32668960</v>
+        <v>37913176</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>173</v>
@@ -7707,16 +6823,7 @@
         <v>10328757</v>
       </c>
       <c r="R18" t="s">
-        <v>191</v>
-      </c>
-      <c r="S18">
-        <v>13</v>
-      </c>
-      <c r="T18">
-        <v>62526571</v>
-      </c>
-      <c r="U18">
-        <v>62528527</v>
+        <v>1087</v>
       </c>
       <c r="X18">
         <v>7</v>
@@ -7726,6 +6833,10 @@
       </c>
       <c r="Z18">
         <v>21735889</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB18" t="s">
         <v>355</v>
@@ -7757,19 +6868,19 @@
         <v>4030793</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I19" s="5">
-        <v>10519711</v>
+        <v>1440364</v>
       </c>
       <c r="J19" s="5">
-        <v>10632776</v>
+        <v>1506951</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>175</v>
@@ -7787,16 +6898,7 @@
         <v>3257726</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
-      </c>
-      <c r="S19">
-        <v>26</v>
-      </c>
-      <c r="T19">
-        <v>37835661</v>
-      </c>
-      <c r="U19">
-        <v>37913176</v>
+        <v>1089</v>
       </c>
       <c r="X19">
         <v>7</v>
@@ -7806,6 +6908,10 @@
       </c>
       <c r="Z19">
         <v>22566025</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB19" t="s">
         <v>357</v>
@@ -7837,19 +6943,19 @@
         <v>26143536</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I20" s="5">
-        <v>41469416</v>
+        <v>32560598</v>
       </c>
       <c r="J20" s="5">
-        <v>41679382</v>
+        <v>32574109</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>56</v>
@@ -7867,16 +6973,7 @@
         <v>46378005</v>
       </c>
       <c r="R20" t="s">
-        <v>104</v>
-      </c>
-      <c r="S20">
-        <v>26</v>
-      </c>
-      <c r="T20">
-        <v>9989425</v>
-      </c>
-      <c r="U20">
-        <v>10067481</v>
+        <v>1088</v>
       </c>
       <c r="X20">
         <v>7</v>
@@ -7886,6 +6983,10 @@
       </c>
       <c r="Z20">
         <v>24270840</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB20" t="s">
         <v>359</v>
@@ -7917,19 +7018,19 @@
         <v>37277166</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I21" s="5">
-        <v>1440364</v>
+        <v>10519711</v>
       </c>
       <c r="J21" s="5">
-        <v>1506951</v>
+        <v>10632776</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>177</v>
@@ -7947,16 +7048,16 @@
         <v>23969405</v>
       </c>
       <c r="R21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="S21">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="T21">
-        <v>3063239</v>
+        <v>30553182</v>
       </c>
       <c r="U21">
-        <v>3257726</v>
+        <v>30638522</v>
       </c>
       <c r="X21">
         <v>7</v>
@@ -7966,6 +7067,10 @@
       </c>
       <c r="Z21">
         <v>25325053</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB21" t="s">
         <v>361</v>
@@ -7997,19 +7102,19 @@
         <v>12073440</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" t="s">
-        <v>329</v>
+        <v>141</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
       </c>
       <c r="I22" s="5">
-        <v>59774585</v>
+        <v>78455005</v>
       </c>
       <c r="J22" s="5">
-        <v>60106980</v>
+        <v>78610033</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>138</v>
@@ -8027,16 +7132,16 @@
         <v>32574109</v>
       </c>
       <c r="R22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="T22">
-        <v>43554146</v>
+        <v>858692</v>
       </c>
       <c r="U22">
-        <v>43555475</v>
+        <v>875876</v>
       </c>
       <c r="X22">
         <v>7</v>
@@ -8047,6 +7152,10 @@
       <c r="Z22">
         <v>25328145</v>
       </c>
+      <c r="AA22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB22" t="s">
         <v>363</v>
       </c>
@@ -8065,16 +7174,16 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="S23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="T23">
-        <v>43501989</v>
+        <v>59962994</v>
       </c>
       <c r="U23">
-        <v>43541604</v>
+        <v>59970751</v>
       </c>
       <c r="X23">
         <v>7</v>
@@ -8085,6 +7194,10 @@
       <c r="Z23">
         <v>26343031</v>
       </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB23" t="s">
         <v>365</v>
       </c>
@@ -8103,16 +7216,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R24" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24">
-        <v>15</v>
-      </c>
-      <c r="T24">
-        <v>40442945</v>
-      </c>
-      <c r="U24">
-        <v>40453334</v>
+        <v>1097</v>
       </c>
       <c r="X24">
         <v>7</v>
@@ -8123,6 +7227,10 @@
       <c r="Z24">
         <v>26561282</v>
       </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB24" t="s">
         <v>367</v>
       </c>
@@ -8141,16 +7249,16 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T25">
-        <v>14503902</v>
+        <v>31793233</v>
       </c>
       <c r="U25">
-        <v>14509113</v>
+        <v>31800912</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -8161,6 +7269,10 @@
       <c r="Z25">
         <v>27638745</v>
       </c>
+      <c r="AA25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB25" t="s">
         <v>369</v>
       </c>
@@ -8179,16 +7291,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R26" t="s">
-        <v>195</v>
-      </c>
-      <c r="S26" t="s">
-        <v>329</v>
-      </c>
-      <c r="T26">
-        <v>122007282</v>
-      </c>
-      <c r="U26">
-        <v>122034255</v>
+        <v>1091</v>
       </c>
       <c r="X26">
         <v>7</v>
@@ -8199,6 +7302,10 @@
       <c r="Z26">
         <v>27638766</v>
       </c>
+      <c r="AA26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB26" t="s">
         <v>371</v>
       </c>
@@ -8217,16 +7324,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R27" t="s">
-        <v>138</v>
-      </c>
-      <c r="S27">
-        <v>5</v>
-      </c>
-      <c r="T27">
-        <v>32560598</v>
-      </c>
-      <c r="U27">
-        <v>32574109</v>
+        <v>1091</v>
       </c>
       <c r="X27">
         <v>7</v>
@@ -8237,6 +7335,10 @@
       <c r="Z27">
         <v>28268688</v>
       </c>
+      <c r="AA27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB27" t="s">
         <v>373</v>
       </c>
@@ -8255,16 +7357,7 @@
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R28" t="s">
-        <v>79</v>
-      </c>
-      <c r="S28">
-        <v>6</v>
-      </c>
-      <c r="T28">
-        <v>49342151</v>
-      </c>
-      <c r="U28">
-        <v>49359933</v>
+        <v>1095</v>
       </c>
       <c r="X28">
         <v>7</v>
@@ -8275,6 +7368,10 @@
       <c r="Z28">
         <v>28889008</v>
       </c>
+      <c r="AA28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB28" t="s">
         <v>375</v>
       </c>
@@ -8293,7 +7390,7 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R29" t="s">
-        <v>1087</v>
+        <v>34</v>
       </c>
       <c r="X29">
         <v>7</v>
@@ -8304,6 +7401,10 @@
       <c r="Z29">
         <v>28889865</v>
       </c>
+      <c r="AA29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB29" t="s">
         <v>377</v>
       </c>
@@ -8322,7 +7423,7 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R30" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="X30">
         <v>7</v>
@@ -8333,6 +7434,10 @@
       <c r="Z30">
         <v>28892386</v>
       </c>
+      <c r="AA30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB30" t="s">
         <v>378</v>
       </c>
@@ -8351,7 +7456,16 @@
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R31" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="S31">
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <v>23185782</v>
+      </c>
+      <c r="U31">
+        <v>23253497</v>
       </c>
       <c r="X31">
         <v>7</v>
@@ -8362,6 +7476,10 @@
       <c r="Z31">
         <v>29046463</v>
       </c>
+      <c r="AA31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB31" t="s">
         <v>380</v>
       </c>
@@ -8380,7 +7498,16 @@
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="R32" t="s">
-        <v>1091</v>
+        <v>132</v>
+      </c>
+      <c r="S32">
+        <v>34</v>
+      </c>
+      <c r="T32">
+        <v>12600233</v>
+      </c>
+      <c r="U32">
+        <v>12675910</v>
       </c>
       <c r="X32">
         <v>7</v>
@@ -8391,6 +7518,10 @@
       <c r="Z32">
         <v>29183351</v>
       </c>
+      <c r="AA32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB32" t="s">
         <v>43</v>
       </c>
@@ -8409,7 +7540,16 @@
     </row>
     <row r="33" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R33" t="s">
-        <v>1091</v>
+        <v>191</v>
+      </c>
+      <c r="S33">
+        <v>13</v>
+      </c>
+      <c r="T33">
+        <v>62526571</v>
+      </c>
+      <c r="U33">
+        <v>62528527</v>
       </c>
       <c r="X33">
         <v>7</v>
@@ -8420,6 +7560,10 @@
       <c r="Z33">
         <v>29195180</v>
       </c>
+      <c r="AA33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB33" t="s">
         <v>382</v>
       </c>
@@ -8432,7 +7576,16 @@
     </row>
     <row r="34" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R34" t="s">
-        <v>1085</v>
+        <v>125</v>
+      </c>
+      <c r="S34">
+        <v>26</v>
+      </c>
+      <c r="T34">
+        <v>37835661</v>
+      </c>
+      <c r="U34">
+        <v>37913176</v>
       </c>
       <c r="X34">
         <v>7</v>
@@ -8443,6 +7596,10 @@
       <c r="Z34">
         <v>29195981</v>
       </c>
+      <c r="AA34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="AB34" t="s">
         <v>384</v>
       </c>
@@ -8461,7 +7618,16 @@
     </row>
     <row r="35" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R35" t="s">
-        <v>1086</v>
+        <v>104</v>
+      </c>
+      <c r="S35">
+        <v>26</v>
+      </c>
+      <c r="T35">
+        <v>9989425</v>
+      </c>
+      <c r="U35">
+        <v>10067481</v>
       </c>
       <c r="X35">
         <v>23</v>
@@ -8471,6 +7637,10 @@
       </c>
       <c r="Z35">
         <v>19577506</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" ref="AA35:AA66" si="1">COUNTA(AB34)</f>
+        <v>1</v>
       </c>
       <c r="AB35" t="s">
         <v>386</v>
@@ -8493,7 +7663,7 @@
         <v>1099</v>
       </c>
       <c r="R36" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="X36">
         <v>23</v>
@@ -8503,6 +7673,10 @@
       </c>
       <c r="Z36">
         <v>19643711</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AB36" t="s">
         <v>388</v>
@@ -8519,7 +7693,16 @@
         <v>143</v>
       </c>
       <c r="R37" t="s">
-        <v>1093</v>
+        <v>175</v>
+      </c>
+      <c r="S37">
+        <v>22</v>
+      </c>
+      <c r="T37">
+        <v>3063239</v>
+      </c>
+      <c r="U37">
+        <v>3257726</v>
       </c>
       <c r="X37">
         <v>31</v>
@@ -8529,6 +7712,10 @@
       </c>
       <c r="Z37">
         <v>11333912</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AB37" t="s">
         <v>389</v>
@@ -8557,7 +7744,16 @@
         <v>8</v>
       </c>
       <c r="R38" t="s">
-        <v>1094</v>
+        <v>192</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>43554146</v>
+      </c>
+      <c r="U38">
+        <v>43555475</v>
       </c>
       <c r="X38">
         <v>31</v>
@@ -8568,13 +7764,26 @@
       <c r="Z38">
         <v>14079585</v>
       </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB38" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="39" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R39" t="s">
-        <v>1095</v>
+        <v>193</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>43501989</v>
+      </c>
+      <c r="U39">
+        <v>43541604</v>
       </c>
       <c r="X39">
         <v>36</v>
@@ -8585,6 +7794,10 @@
       <c r="Z39">
         <v>24728286</v>
       </c>
+      <c r="AA39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB39" t="s">
         <v>392</v>
       </c>
@@ -8603,7 +7816,7 @@
     </row>
     <row r="40" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R40" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="X40">
         <v>36</v>
@@ -8614,6 +7827,10 @@
       <c r="Z40">
         <v>24741013</v>
       </c>
+      <c r="AA40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB40" t="s">
         <v>394</v>
       </c>
@@ -8632,7 +7849,16 @@
     </row>
     <row r="41" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R41" t="s">
-        <v>1097</v>
+        <v>84</v>
+      </c>
+      <c r="S41">
+        <v>15</v>
+      </c>
+      <c r="T41">
+        <v>40442945</v>
+      </c>
+      <c r="U41">
+        <v>40453334</v>
       </c>
       <c r="X41">
         <v>36</v>
@@ -8643,6 +7869,10 @@
       <c r="Z41">
         <v>25066361</v>
       </c>
+      <c r="AA41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB41" t="s">
         <v>396</v>
       </c>
@@ -8661,7 +7891,16 @@
     </row>
     <row r="42" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
-        <v>1098</v>
+        <v>194</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>14503902</v>
+      </c>
+      <c r="U42">
+        <v>14509113</v>
       </c>
       <c r="X42">
         <v>36</v>
@@ -8672,6 +7911,10 @@
       <c r="Z42">
         <v>26105038</v>
       </c>
+      <c r="AA42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB42" t="s">
         <v>398</v>
       </c>
@@ -8690,7 +7933,16 @@
     </row>
     <row r="43" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R43" t="s">
-        <v>1089</v>
+        <v>195</v>
+      </c>
+      <c r="S43" t="s">
+        <v>329</v>
+      </c>
+      <c r="T43">
+        <v>122007282</v>
+      </c>
+      <c r="U43">
+        <v>122034255</v>
       </c>
       <c r="X43">
         <v>1</v>
@@ -8701,6 +7953,10 @@
       <c r="Z43">
         <v>96820392</v>
       </c>
+      <c r="AA43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB43" t="s">
         <v>400</v>
       </c>
@@ -8719,7 +7975,16 @@
     </row>
     <row r="44" spans="10:32" x14ac:dyDescent="0.2">
       <c r="R44" t="s">
-        <v>1088</v>
+        <v>138</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>32560598</v>
+      </c>
+      <c r="U44">
+        <v>32574109</v>
       </c>
       <c r="X44">
         <v>3</v>
@@ -8730,6 +7995,10 @@
       <c r="Z44">
         <v>64230695</v>
       </c>
+      <c r="AA44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB44" t="s">
         <v>38</v>
       </c>
@@ -8747,6 +8016,18 @@
       </c>
     </row>
     <row r="45" spans="10:32" x14ac:dyDescent="0.2">
+      <c r="R45" t="s">
+        <v>79</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="T45">
+        <v>49342151</v>
+      </c>
+      <c r="U45">
+        <v>49359933</v>
+      </c>
       <c r="X45">
         <v>4</v>
       </c>
@@ -8755,6 +8036,10 @@
       </c>
       <c r="Z45">
         <v>13790420</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="AB45" t="s">
         <v>402</v>
@@ -8782,6 +8067,10 @@
       <c r="Z46">
         <v>14689293</v>
       </c>
+      <c r="AA46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB46" t="s">
         <v>404</v>
       </c>
@@ -8808,6 +8097,10 @@
       <c r="Z47">
         <v>16009039</v>
       </c>
+      <c r="AA47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB47" t="s">
         <v>406</v>
       </c>
@@ -8834,6 +8127,10 @@
       <c r="Z48">
         <v>16111171</v>
       </c>
+      <c r="AA48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB48" t="s">
         <v>407</v>
       </c>
@@ -8860,6 +8157,10 @@
       <c r="Z49">
         <v>16786042</v>
       </c>
+      <c r="AA49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB49" t="s">
         <v>409</v>
       </c>
@@ -8886,6 +8187,10 @@
       <c r="Z50">
         <v>17148697</v>
       </c>
+      <c r="AA50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="AB50" t="s">
         <v>411</v>
       </c>
@@ -8912,6 +8217,10 @@
       <c r="Z51">
         <v>17185672</v>
       </c>
+      <c r="AA51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="9:32" x14ac:dyDescent="0.2">
       <c r="X52">
@@ -8923,6 +8232,10 @@
       <c r="Z52">
         <v>18103149</v>
       </c>
+      <c r="AA52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="9:32" x14ac:dyDescent="0.2">
       <c r="X53">
@@ -8933,6 +8246,10 @@
       </c>
       <c r="Z53">
         <v>19193653</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="9:32" x14ac:dyDescent="0.2">
@@ -8946,6 +8263,10 @@
       <c r="Z54">
         <v>20149232</v>
       </c>
+      <c r="AA54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I55" s="40" t="s">
@@ -8963,6 +8284,10 @@
       <c r="Z55">
         <v>21217973</v>
       </c>
+      <c r="AA55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I56" s="40" t="s">
@@ -8977,6 +8302,10 @@
       <c r="Z56">
         <v>22522055</v>
       </c>
+      <c r="AA56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I57" s="40" t="s">
@@ -8994,6 +8323,10 @@
       <c r="Z57">
         <v>24131087</v>
       </c>
+      <c r="AA57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I58" s="40" t="s">
@@ -9011,6 +8344,10 @@
       <c r="Z58">
         <v>25326437</v>
       </c>
+      <c r="AA58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I59" s="40" t="s">
@@ -9028,6 +8365,10 @@
       <c r="Z59">
         <v>29743397</v>
       </c>
+      <c r="AA59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I60" s="40" t="s">
@@ -9045,6 +8386,10 @@
       <c r="Z60">
         <v>46835127</v>
       </c>
+      <c r="AA60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I61" s="40" t="s">
@@ -9062,6 +8407,10 @@
       <c r="Z61">
         <v>40454439</v>
       </c>
+      <c r="AA61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I62" s="40" t="s">
@@ -9079,6 +8428,10 @@
       <c r="Z62">
         <v>43572717</v>
       </c>
+      <c r="AA62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I63" s="40" t="s">
@@ -9096,6 +8449,10 @@
       <c r="Z63">
         <v>12158978</v>
       </c>
+      <c r="AA63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="9:32" x14ac:dyDescent="0.2">
       <c r="I64" s="40" t="s">
@@ -9113,8 +8470,12 @@
       <c r="Z64">
         <v>26521228</v>
       </c>
-    </row>
-    <row r="65" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I65" s="40" t="s">
         <v>185</v>
       </c>
@@ -9130,8 +8491,12 @@
       <c r="Z65">
         <v>26580699</v>
       </c>
-    </row>
-    <row r="66" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I66" s="40" t="s">
         <v>1090</v>
       </c>
@@ -9147,8 +8512,12 @@
       <c r="Z66">
         <v>24042353</v>
       </c>
-    </row>
-    <row r="67" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I67" s="40" t="s">
         <v>1096</v>
       </c>
@@ -9164,8 +8533,12 @@
       <c r="Z67">
         <v>25328145</v>
       </c>
-    </row>
-    <row r="68" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA67">
+        <f t="shared" ref="AA67:AA74" si="2">COUNTA(AB66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I68" s="40" t="s">
         <v>1093</v>
       </c>
@@ -9181,8 +8554,12 @@
       <c r="Z68">
         <v>25362661</v>
       </c>
-    </row>
-    <row r="69" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I69" s="40" t="s">
         <v>1087</v>
       </c>
@@ -9198,8 +8575,12 @@
       <c r="Z69">
         <v>27638745</v>
       </c>
-    </row>
-    <row r="70" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I70" s="40" t="s">
         <v>1089</v>
       </c>
@@ -9215,8 +8596,12 @@
       <c r="Z70" s="7">
         <v>27702128</v>
       </c>
-    </row>
-    <row r="71" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I71" s="40" t="s">
         <v>1088</v>
       </c>
@@ -9232,8 +8617,12 @@
       <c r="Z71">
         <v>28889865</v>
       </c>
-    </row>
-    <row r="72" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I72" s="40" t="s">
         <v>187</v>
       </c>
@@ -9249,8 +8638,12 @@
       <c r="Z72">
         <v>29183351</v>
       </c>
-    </row>
-    <row r="73" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA72">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I73" s="40" t="s">
         <v>188</v>
       </c>
@@ -9266,8 +8659,12 @@
       <c r="Z73">
         <v>29195981</v>
       </c>
-    </row>
-    <row r="74" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I74" s="40" t="s">
         <v>189</v>
       </c>
@@ -9283,12 +8680,270 @@
       <c r="Z74">
         <v>11856947</v>
       </c>
-    </row>
-    <row r="75" spans="9:26" x14ac:dyDescent="0.2">
+      <c r="AA74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="9:27" x14ac:dyDescent="0.2">
       <c r="I75" s="40" t="s">
         <v>1097</v>
       </c>
       <c r="J75" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+    </row>
+    <row r="85" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B85" s="50"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
+      <c r="I85" s="50"/>
+      <c r="J85" s="50"/>
+      <c r="K85" s="51"/>
+    </row>
+    <row r="90" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+    </row>
+    <row r="91" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="53"/>
+    </row>
+    <row r="95" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B95" s="50"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+    </row>
+    <row r="96" spans="2:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="B96" s="50"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="51"/>
+    </row>
+    <row r="98" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B98" s="50"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50"/>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="50"/>
+      <c r="N98" s="50"/>
+      <c r="O98" s="50"/>
+      <c r="P98" s="50"/>
+    </row>
+    <row r="99" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B99" s="50"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="50"/>
+      <c r="O99" s="50"/>
+      <c r="P99" s="50"/>
+    </row>
+    <row r="100" spans="2:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="B100" s="50"/>
+      <c r="C100" s="50"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="50"/>
+      <c r="I100" s="50"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="50"/>
+      <c r="O100" s="50"/>
+      <c r="P100" s="51"/>
+    </row>
+    <row r="126" spans="6:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="F126" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="G126" s="50" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H126" s="50" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I126" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="J126" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K126" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="L126" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="M126" s="50" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N126" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="O126" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="P126" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q126" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="R126" s="50" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S126" s="50" t="s">
+        <v>1096</v>
+      </c>
+      <c r="T126" s="50" t="s">
+        <v>1093</v>
+      </c>
+      <c r="U126" s="50" t="s">
+        <v>1087</v>
+      </c>
+      <c r="V126" s="50" t="s">
+        <v>1089</v>
+      </c>
+      <c r="W126" s="50" t="s">
+        <v>1088</v>
+      </c>
+      <c r="X126" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y126" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z126" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD126" s="50"/>
+    </row>
+    <row r="127" spans="6:30" ht="21" x14ac:dyDescent="0.25">
+      <c r="F127" s="50" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G127" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="H127" s="50" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I127" s="50" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J127" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="K127" s="50" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L127" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M127" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="N127" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="O127" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="P127" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q127" s="50" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R127" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="S127" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="T127" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="U127" s="50" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V127" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="W127" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="X127" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y127" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z127" s="51" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9316,6 +8971,671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DE4D0B-A973-A14E-BA85-35DF6DDB5A9B}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>422</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>427</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>551</v>
+      </c>
+      <c r="D7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7">
+        <v>171</v>
+      </c>
+      <c r="F7" s="55">
+        <v>0.33583299999999999</v>
+      </c>
+      <c r="G7" s="55">
+        <v>1.35673771</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>515</v>
+      </c>
+      <c r="J7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="M7" s="55">
+        <v>0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8">
+        <v>176</v>
+      </c>
+      <c r="F8" s="55">
+        <v>0.13506199999999999</v>
+      </c>
+      <c r="G8" s="55">
+        <v>0.10864465</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J8" t="s">
+        <v>564</v>
+      </c>
+      <c r="K8" t="s">
+        <v>565</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0.92105000000000004</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0.64650000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>713</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9">
+        <v>177</v>
+      </c>
+      <c r="F9" s="55">
+        <v>0.52184900000000001</v>
+      </c>
+      <c r="G9" s="55">
+        <v>2.51310631</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>716</v>
+      </c>
+      <c r="J9" t="s">
+        <v>717</v>
+      </c>
+      <c r="K9" t="s">
+        <v>773</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0.27529999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10">
+        <v>177</v>
+      </c>
+      <c r="F10" s="55">
+        <v>0.508969</v>
+      </c>
+      <c r="G10" s="55">
+        <v>2.4330377799999998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>458</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="55">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="M10" s="55">
+        <v>0.2848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>718</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11">
+        <v>176</v>
+      </c>
+      <c r="F11" s="55">
+        <v>0.49845499999999998</v>
+      </c>
+      <c r="G11" s="55">
+        <v>2.3676774900000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>575</v>
+      </c>
+      <c r="J11" t="s">
+        <v>721</v>
+      </c>
+      <c r="K11" t="s">
+        <v>722</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="M11" s="55">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12">
+        <v>176</v>
+      </c>
+      <c r="F12" s="55">
+        <v>0.32863799999999999</v>
+      </c>
+      <c r="G12" s="55">
+        <v>1.31200999</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>730</v>
+      </c>
+      <c r="J12" t="s">
+        <v>731</v>
+      </c>
+      <c r="K12" t="s">
+        <v>732</v>
+      </c>
+      <c r="L12" s="55">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="M12" s="55">
+        <v>0.34389999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>740</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13">
+        <v>175</v>
+      </c>
+      <c r="F13" s="55">
+        <v>0.325071</v>
+      </c>
+      <c r="G13" s="55">
+        <v>1.2898357300000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>515</v>
+      </c>
+      <c r="J13" t="s">
+        <v>743</v>
+      </c>
+      <c r="K13" t="s">
+        <v>744</v>
+      </c>
+      <c r="L13" s="55">
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="M13" s="55">
+        <v>0.34620000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>672</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14">
+        <v>175</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0.122056</v>
+      </c>
+      <c r="G14" s="55">
+        <v>2.7792839999999999E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>425</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" t="s">
+        <v>675</v>
+      </c>
+      <c r="L14" s="55">
+        <v>0.94737000000000005</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0.69550000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15">
+        <v>174</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0.13351499999999999</v>
+      </c>
+      <c r="G15" s="55">
+        <v>9.902772E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>486</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="55">
+        <v>0.94737000000000005</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0.68059999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16">
+        <v>174</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0.13719400000000001</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0.12189823</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>600</v>
+      </c>
+      <c r="J16" t="s">
+        <v>601</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="55">
+        <v>0.94737000000000005</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0.6774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17">
+        <v>176</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0.138761</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0.13163949</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>645</v>
+      </c>
+      <c r="J17" t="s">
+        <v>682</v>
+      </c>
+      <c r="K17" t="s">
+        <v>632</v>
+      </c>
+      <c r="L17" s="55">
+        <v>0.94737000000000005</v>
+      </c>
+      <c r="M17" s="55">
+        <v>0.67520000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>683</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>179</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0.74814099999999994</v>
+      </c>
+      <c r="G18" s="55">
+        <v>3.9198506900000001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>450</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="55">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="M18" s="55">
+        <v>9.6879999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>602</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>173</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0.84786300000000003</v>
+      </c>
+      <c r="G19" s="55">
+        <v>4.5397725700000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>604</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="M19" s="55">
+        <v>4.87E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L13">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L17">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE77F396-93D0-2A42-B998-C8C3F68D91C5}">
   <dimension ref="A1:K35"/>
@@ -10230,10 +10550,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="49"/>
+      <c r="B1" s="56"/>
       <c r="C1" t="s">
         <v>324</v>
       </c>
@@ -12011,9 +12331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A6B31F-25BD-924A-9073-B58E23526C19}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12328,23 +12646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD11EDD-8EFF-F243-9F3C-15508B196465}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E7384A-C4DD-7F4A-BC7A-A640407F6AFC}">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection sqref="A1:T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12371,28 +12677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -12634,28 +12940,28 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -13427,7 +13733,7 @@
     <mergeCell ref="A7:T7"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13439,12 +13745,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3428C6B6-F1F4-AA47-8396-7DEA0F4BAB89}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13459,27 +13765,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -13597,27 +13903,27 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -14588,7 +14894,7 @@
     <mergeCell ref="A5:S5"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14600,13 +14906,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859F3F33-6B5A-0949-8153-9E611A8D0303}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14660,12 +14964,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2740598-C676-8B45-99FB-10B04BC68722}">
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14674,32 +14978,33 @@
     <col min="9" max="9" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="14" max="14" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.83203125" customWidth="1"/>
     <col min="19" max="19" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -14820,27 +15125,27 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -16254,27 +16559,27 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="49"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -16342,7 +16647,7 @@
     <mergeCell ref="A30:S30"/>
   </mergeCells>
   <conditionalFormatting sqref="T9:T11 S12:S1048576 S1:S8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16356,12 +16661,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC6789E-F3C9-C144-BA16-B846F3F198E9}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I30" sqref="A30:XFD34"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16375,27 +16680,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -17100,27 +17405,27 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -19263,7 +19568,7 @@
     <mergeCell ref="A14:S14"/>
   </mergeCells>
   <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19275,12 +19580,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0AB4C0-4181-F148-B96E-54947042D55E}">
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19294,27 +19599,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -20309,27 +20614,27 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -22797,27 +23102,27 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
+      <c r="A66" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
-      <c r="Q66" s="49"/>
-      <c r="R66" s="49"/>
-      <c r="S66" s="49"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="56"/>
+      <c r="K66" s="56"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="56"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="56"/>
+      <c r="R66" s="56"/>
+      <c r="S66" s="56"/>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -22963,7 +23268,1028 @@
     <mergeCell ref="A21:S21"/>
   </mergeCells>
   <conditionalFormatting sqref="S26:S64 R23:R25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="greaterThan">
+      <formula>0.6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA1EB64-53E8-7B4E-9184-BC669369BCC9}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="56" t="s">
+        <v>428</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>422</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="56" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>416</v>
+      </c>
+      <c r="J6" t="s">
+        <v>417</v>
+      </c>
+      <c r="K6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E7">
+        <v>16340641</v>
+      </c>
+      <c r="F7">
+        <v>179</v>
+      </c>
+      <c r="G7">
+        <v>0.55923800000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.7455351000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>772</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>730</v>
+      </c>
+      <c r="M7" t="s">
+        <v>731</v>
+      </c>
+      <c r="N7" t="s">
+        <v>773</v>
+      </c>
+      <c r="O7" t="s">
+        <v>774</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="R7">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="S7">
+        <v>0.65790000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>775</v>
+      </c>
+      <c r="C8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D8" t="s">
+        <v>777</v>
+      </c>
+      <c r="E8">
+        <v>16905077</v>
+      </c>
+      <c r="F8">
+        <v>174</v>
+      </c>
+      <c r="G8">
+        <v>5.9039500000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>-0.36394929999999998</v>
+      </c>
+      <c r="I8" t="s">
+        <v>778</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
+        <v>575</v>
+      </c>
+      <c r="M8" t="s">
+        <v>721</v>
+      </c>
+      <c r="N8" t="s">
+        <v>779</v>
+      </c>
+      <c r="O8" t="s">
+        <v>780</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.2</v>
+      </c>
+      <c r="S8">
+        <v>0.36840000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>781</v>
+      </c>
+      <c r="C9" t="s">
+        <v>782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>783</v>
+      </c>
+      <c r="E9">
+        <v>19071668</v>
+      </c>
+      <c r="F9">
+        <v>178</v>
+      </c>
+      <c r="G9">
+        <v>3.6314100000000002E-2</v>
+      </c>
+      <c r="H9">
+        <v>-0.5052217</v>
+      </c>
+      <c r="I9" t="s">
+        <v>784</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>504</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>785</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.4088</v>
+      </c>
+      <c r="S9">
+        <v>0.42109999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D10" t="s">
+        <v>787</v>
+      </c>
+      <c r="E10">
+        <v>19209694</v>
+      </c>
+      <c r="F10">
+        <v>175</v>
+      </c>
+      <c r="G10">
+        <v>-1.6185999999999999E-2</v>
+      </c>
+      <c r="H10">
+        <v>-0.83158860000000001</v>
+      </c>
+      <c r="I10" t="s">
+        <v>788</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" t="s">
+        <v>447</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" t="s">
+        <v>785</v>
+      </c>
+      <c r="P10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.73680000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C11" t="s">
+        <v>790</v>
+      </c>
+      <c r="D11" t="s">
+        <v>791</v>
+      </c>
+      <c r="E11">
+        <v>27638766</v>
+      </c>
+      <c r="F11">
+        <v>172</v>
+      </c>
+      <c r="G11">
+        <v>8.3832900000000002E-2</v>
+      </c>
+      <c r="H11">
+        <v>-0.20982110000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>792</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>793</v>
+      </c>
+      <c r="M11" t="s">
+        <v>794</v>
+      </c>
+      <c r="N11" t="s">
+        <v>636</v>
+      </c>
+      <c r="O11" t="s">
+        <v>234</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.47370000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C12" t="s">
+        <v>796</v>
+      </c>
+      <c r="D12" t="s">
+        <v>797</v>
+      </c>
+      <c r="E12">
+        <v>28889008</v>
+      </c>
+      <c r="F12">
+        <v>178</v>
+      </c>
+      <c r="G12">
+        <v>-5.32585E-3</v>
+      </c>
+      <c r="H12">
+        <v>-0.76407650000000005</v>
+      </c>
+      <c r="I12" t="s">
+        <v>798</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>745</v>
+      </c>
+      <c r="M12" t="s">
+        <v>746</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>230</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="R12">
+        <v>0.22009999999999999</v>
+      </c>
+      <c r="S12">
+        <v>0.71050000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>796</v>
+      </c>
+      <c r="D13" t="s">
+        <v>800</v>
+      </c>
+      <c r="E13">
+        <v>28892386</v>
+      </c>
+      <c r="F13">
+        <v>177</v>
+      </c>
+      <c r="G13">
+        <v>-1.5277300000000001E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.82593970000000005</v>
+      </c>
+      <c r="I13" t="s">
+        <v>801</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>802</v>
+      </c>
+      <c r="M13" t="s">
+        <v>803</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" t="s">
+        <v>230</v>
+      </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="R13">
+        <v>0.2437</v>
+      </c>
+      <c r="S13">
+        <v>0.28949999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>804</v>
+      </c>
+      <c r="C14" t="s">
+        <v>805</v>
+      </c>
+      <c r="D14" t="s">
+        <v>806</v>
+      </c>
+      <c r="E14">
+        <v>29046463</v>
+      </c>
+      <c r="F14">
+        <v>178</v>
+      </c>
+      <c r="G14">
+        <v>9.8353300000000005E-2</v>
+      </c>
+      <c r="H14">
+        <v>-0.11955499999999999</v>
+      </c>
+      <c r="I14" t="s">
+        <v>807</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>450</v>
+      </c>
+      <c r="M14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>808</v>
+      </c>
+      <c r="O14" t="s">
+        <v>809</v>
+      </c>
+      <c r="P14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.1164</v>
+      </c>
+      <c r="S14">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="V14">
+        <f>COUNTA(Table28[r_MAF_A])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C15" t="s">
+        <v>811</v>
+      </c>
+      <c r="D15" t="s">
+        <v>812</v>
+      </c>
+      <c r="E15">
+        <v>29195180</v>
+      </c>
+      <c r="F15">
+        <v>174</v>
+      </c>
+      <c r="G15">
+        <v>3.9446500000000002E-2</v>
+      </c>
+      <c r="H15">
+        <v>-0.48574919999999999</v>
+      </c>
+      <c r="I15" t="s">
+        <v>813</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" t="s">
+        <v>814</v>
+      </c>
+      <c r="M15" t="s">
+        <v>815</v>
+      </c>
+      <c r="N15" t="s">
+        <v>816</v>
+      </c>
+      <c r="O15" t="s">
+        <v>227</v>
+      </c>
+      <c r="P15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="R15">
+        <v>0.49030000000000001</v>
+      </c>
+      <c r="S15">
+        <v>0.68420000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>817</v>
+      </c>
+      <c r="C16" t="s">
+        <v>818</v>
+      </c>
+      <c r="D16" t="s">
+        <v>819</v>
+      </c>
+      <c r="E16">
+        <v>19643711</v>
+      </c>
+      <c r="F16">
+        <v>174</v>
+      </c>
+      <c r="G16">
+        <v>1.88217E-2</v>
+      </c>
+      <c r="H16">
+        <v>-0.61396329999999999</v>
+      </c>
+      <c r="I16" t="s">
+        <v>820</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>447</v>
+      </c>
+      <c r="M16" t="s">
+        <v>707</v>
+      </c>
+      <c r="N16" t="s">
+        <v>821</v>
+      </c>
+      <c r="O16" t="s">
+        <v>822</v>
+      </c>
+      <c r="P16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="R16">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="S16">
+        <v>0.44740000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C17" t="s">
+        <v>824</v>
+      </c>
+      <c r="D17" t="s">
+        <v>825</v>
+      </c>
+      <c r="E17">
+        <v>11333912</v>
+      </c>
+      <c r="F17">
+        <v>175</v>
+      </c>
+      <c r="G17">
+        <v>0.36162300000000003</v>
+      </c>
+      <c r="H17">
+        <v>1.5170612999999999</v>
+      </c>
+      <c r="I17" t="s">
+        <v>826</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>640</v>
+      </c>
+      <c r="M17" t="s">
+        <v>641</v>
+      </c>
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>0.60529999999999995</v>
+      </c>
+      <c r="R17">
+        <v>0.17630000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.60529999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>827</v>
+      </c>
+      <c r="C18" t="s">
+        <v>828</v>
+      </c>
+      <c r="D18" t="s">
+        <v>829</v>
+      </c>
+      <c r="E18">
+        <v>25066361</v>
+      </c>
+      <c r="F18">
+        <v>178</v>
+      </c>
+      <c r="G18">
+        <v>4.9534300000000003E-2</v>
+      </c>
+      <c r="H18">
+        <v>-0.42303839999999998</v>
+      </c>
+      <c r="I18" t="s">
+        <v>830</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>831</v>
+      </c>
+      <c r="M18" t="s">
+        <v>832</v>
+      </c>
+      <c r="N18" t="s">
+        <v>833</v>
+      </c>
+      <c r="O18" t="s">
+        <v>834</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="R18">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.34210000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>COUNTA(Table28[CHR])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>416</v>
+      </c>
+      <c r="J21" t="s">
+        <v>417</v>
+      </c>
+      <c r="K21" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S7:S18">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
